--- a/Projects/SANOFIKH/Data/Template.xlsx
+++ b/Projects/SANOFIKH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -256,17 +256,17 @@
  - DOLIPRANE 500MG 16 TAB</t>
   </si>
   <si>
-    <t> 3582910076124,
- 3582910076148,
- 3582910076155,
- 3582910076117,
- 3582910080282</t>
+    <t>3582910076124,
+3582910076148,
+3582910076155,
+3582910076117,
+3582910080282</t>
   </si>
   <si>
     <t>CALCIUM CORBIERE BOX3SUPx10_10ML KH  CALCIUM CORBIERE BOX3SUPx10_5ML KH</t>
   </si>
   <si>
-    <t>CAMR31983IP01, 
+    <t>CAMR31983IP01,
 CAMN0137IP13</t>
   </si>
   <si>
@@ -1416,18 +1416,18 @@
   </sheetPr>
   <dimension ref="A1:G65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.497975708502"/>
   </cols>
   <sheetData>
@@ -1671,11 +1671,11 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="29.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="23" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="23" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="23" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="23" width="6.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="23" width="9.10526315789474"/>
@@ -6076,12 +6076,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="23" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="23" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="23" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="23" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6143,8 +6143,8 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6152,11 +6152,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="23" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="23" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="23" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="23" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="23" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="23" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="23" width="4.49797570850202"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="23" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="23" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6171,6 +6171,7 @@
         <v>27</v>
       </c>
       <c r="H1" s="57"/>
+      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="58" t="s">
@@ -6197,6 +6198,7 @@
       <c r="H2" s="61" t="s">
         <v>34</v>
       </c>
+      <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="115.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="62" t="s">
@@ -6376,13 +6378,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="23" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="23" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="23" width="4.49797570850202"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="23" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="23" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -11648,14 +11650,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="23" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="23" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="23" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="23" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="23" width="4.49797570850202"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="23" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="23" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/SANOFIKH/Data/Template.xlsx
+++ b/Projects/SANOFIKH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -1422,12 +1422,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.497975708502"/>
   </cols>
   <sheetData>
@@ -1671,10 +1671,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="23" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="23" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="23" width="6.85425101214575"/>
@@ -6076,12 +6076,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="23" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="23" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="23" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="23" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="23" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="23" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="23" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6143,7 +6143,7 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -6153,8 +6153,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="23" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="23" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="23" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="23" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="23" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="23" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="23" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="23" width="9.10526315789474"/>
@@ -6378,11 +6378,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="23" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="23" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="23" width="4.39271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="23" width="9.10526315789474"/>
@@ -11644,17 +11644,17 @@
   </sheetPr>
   <dimension ref="1:15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="23" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="23" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="23" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="23" width="11.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="23" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="23" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="23" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="23" width="4.39271255060729"/>
@@ -16080,10 +16080,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="100" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" s="101" t="n">
-        <v>3582910076117</v>
+        <v>3582910080282</v>
       </c>
       <c r="D15" s="100" t="s">
         <v>53</v>

--- a/Projects/SANOFIKH/Data/Template.xlsx
+++ b/Projects/SANOFIKH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -90,22 +90,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -163,22 +163,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -236,7 +236,6 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
@@ -247,11 +246,11 @@
         </r>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>identical</t>
         </r>
@@ -285,22 +284,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -358,11 +357,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Pavel Chernykh:
 </t>
@@ -383,11 +382,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Pavel Chernykh:
 </t>
@@ -408,22 +407,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -509,22 +508,22 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Store Type</t>
-        </r>
-        <r>
-          <rPr>
             <u val="single"/>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
+          </rPr>
+          <t>Store Type</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t> must be identical with Store Type attribute in Store Template. </t>
         </r>
@@ -545,7 +544,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="82">
   <si>
     <t>KPI Name</t>
   </si>
@@ -775,9 +774,6 @@
     <t>WF-02</t>
   </si>
   <si>
-    <t>PAIN </t>
-  </si>
-  <si>
     <t>Calcium Window Frame</t>
   </si>
   <si>
@@ -790,16 +786,10 @@
     <t>WF-04</t>
   </si>
   <si>
-    <t>DIGESTIVE HEALTH </t>
-  </si>
-  <si>
     <t>Doliprane Counter Display</t>
   </si>
   <si>
     <t>CD-01</t>
-  </si>
-  <si>
-    <t>Cough&amp;Cold</t>
   </si>
 </sst>
 </file>
@@ -836,18 +826,18 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -905,14 +895,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -951,6 +933,14 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -1202,19 +1192,19 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="medium"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
       <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="medium"/>
       <top/>
       <bottom style="thin"/>
@@ -1228,7 +1218,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1252,25 +1242,21 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="100">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1322,7 +1308,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1334,11 +1320,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1386,15 +1372,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1402,23 +1380,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1434,15 +1412,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1454,7 +1432,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1518,19 +1496,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="21" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="20" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="21" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1570,14 +1548,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="17" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1590,7 +1568,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1606,11 +1588,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="17" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1618,11 +1600,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="24" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1630,27 +1612,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="27" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="27" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="26" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1666,24 +1644,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="14" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1755,19 +1728,19 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2026,17 +1999,17 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2074,7 +2047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
@@ -2097,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
         <v>23</v>
       </c>
@@ -2120,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="20" t="s">
         <v>23</v>
       </c>
@@ -2143,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
         <v>23</v>
       </c>
@@ -2166,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
@@ -2189,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
@@ -2212,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
@@ -2235,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
@@ -2258,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
         <v>23</v>
       </c>
@@ -2281,7 +2254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
         <v>23</v>
       </c>
@@ -2304,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -2352,24 +2325,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="31" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="31" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="32" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="13" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+    <row r="1" s="33" customFormat="true" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
@@ -2387,142 +2360,142 @@
       <c r="E2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="39"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2546,29 +2519,29 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="46" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="46" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="47" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="44" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="44" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="45" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="49" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="49"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
@@ -2593,141 +2566,141 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="F3" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="55" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="F4" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+      <c r="F5" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="55" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+      <c r="F6" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="55" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
+      <c r="F7" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="60" t="n">
+      <c r="F8" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2754,17 +2727,17 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="62" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="62" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="62" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2774,221 +2747,221 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="63"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="67" t="s">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="67" t="s">
+      <c r="F3" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="72" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67" t="s">
+      <c r="C5" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="74" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="75" t="s">
+      <c r="B6" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="79" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="74" t="s">
+      <c r="C6" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="D6" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="76" t="s">
+      <c r="C7" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="76" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="79" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="81" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="76" t="n">
+        <v>56</v>
+      </c>
+      <c r="F7" s="79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="41"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="41"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="41"/>
+      <c r="F11" s="39"/>
     </row>
     <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="41"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="41"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="41"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="41"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="41"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="41"/>
+      <c r="F17" s="39"/>
     </row>
     <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="41"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="41"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="41"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="41"/>
+      <c r="F21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="41"/>
+      <c r="F22" s="39"/>
     </row>
     <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="41"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="41"/>
+      <c r="F24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="41"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="41"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="41"/>
+      <c r="F27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3012,351 +2985,351 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="49" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="47" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="62" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="88" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="67" t="s">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="93" t="n">
+      <c r="F3" s="91" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="94" t="n">
+      <c r="G3" s="92" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="67" t="s">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="95" t="n">
+      <c r="F4" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="94" t="n">
+      <c r="G4" s="92" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67" t="s">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="95" t="n">
+      <c r="F5" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="94" t="n">
+      <c r="G5" s="92" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="67" t="s">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="95" t="n">
+      <c r="F6" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="94" t="n">
+      <c r="G6" s="92" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="67" t="s">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="95" t="n">
+      <c r="F7" s="93" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="94" t="n">
+      <c r="G7" s="92" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="67" t="s">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="91" t="n">
+      <c r="C8" s="90" t="n">
         <v>3582910080282</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="95" t="n">
+      <c r="F8" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="94" t="n">
+      <c r="G8" s="92" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="67" t="s">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="91" t="n">
+      <c r="C9" s="90" t="n">
         <v>3582910076117</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="95" t="n">
+      <c r="F9" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="94" t="n">
+      <c r="G9" s="92" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="67" t="s">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="91" t="n">
+      <c r="C10" s="90" t="n">
         <v>3582910076155</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="95" t="n">
+      <c r="F10" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="G10" s="94" t="n">
+      <c r="G10" s="92" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="67" t="s">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="91" t="n">
+      <c r="C11" s="90" t="n">
         <v>3582910076148</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="95" t="n">
+      <c r="F11" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="94" t="n">
+      <c r="G11" s="92" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="67" t="s">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="91" t="n">
+      <c r="C12" s="90" t="n">
         <v>3582910076124</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="95" t="n">
+      <c r="F12" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="94" t="n">
+      <c r="G12" s="92" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="67" t="s">
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="92" t="s">
+      <c r="E13" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="95" t="n">
+      <c r="F13" s="93" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="94" t="n">
+      <c r="G13" s="92" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="97" t="s">
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="D14" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="93" t="n">
+      <c r="E14" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="91" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="102" t="n">
+      <c r="G14" s="99" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="97" t="s">
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="91" t="n">
+      <c r="C15" s="90" t="n">
         <v>3582910080282</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="92" t="s">
+      <c r="E15" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="95" t="n">
+      <c r="F15" s="93" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="94" t="n">
+      <c r="G15" s="92" t="n">
         <v>2</v>
       </c>
     </row>

--- a/Projects/SANOFIKH/Data/Template.xlsx
+++ b/Projects/SANOFIKH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="76">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -736,18 +736,6 @@
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOLIPRANE 150MG ETUI 12 BAG CHILD,DOLIPRANE 200MG ETUI 12 BAG,DOLIPRANE 300MG ETUI 12 BAG,DOLIPRANE 500MG ETUI 12 BAG AD,DOLIPRANE 500MG 16 TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910076124,3582910076148,3582910076155,3582910076117,3582910080282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALCIUM CORBIERE BOX3SUPx10_10ML KH  CALCIUM,CORBIERE BOX3SUPx10_5ML KH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMR31983IP01,CAMN0137IP13</t>
   </si>
   <si>
     <t xml:space="preserve">Acemuc Window Frame</t>
@@ -790,7 +778,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -814,6 +802,26 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -822,62 +830,16 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -905,37 +867,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1197,7 +1133,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1221,430 +1157,321 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="75">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="19" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="20" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="24" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="26" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="23" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1716,172 +1543,172 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6234817813765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2226720647773"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.2753036437247"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.09716599190283"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -1892,15 +1719,15 @@
         <v>9</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
@@ -1913,15 +1740,15 @@
       <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1932,11 +1759,11 @@
       <c r="D10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="9"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
@@ -1947,24 +1774,24 @@
       <c r="D11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1987,304 +1814,305 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="14" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="26.8218623481781"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.1619433198381"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.5060728744939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="9.95546558704453"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.52631578947368"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="4"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
+      <c r="F3" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20" t="s">
+      <c r="F4" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
+      <c r="F5" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
+      <c r="F6" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
+      <c r="F7" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="25" t="n">
         <v>3582910080282</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
+      <c r="F8" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="25" t="n">
         <v>3582910076117</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
+      <c r="F9" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="C10" s="25" t="n">
         <v>3582910076155</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
+      <c r="F10" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="25" t="n">
         <v>3582910076148</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
+      <c r="F11" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="25" t="n">
         <v>3582910076124</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="F12" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="29" t="n">
+      <c r="F13" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2307,215 +2135,216 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="31" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="31" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="31" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="32" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="15.3603238866397"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="4.76923076923077"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="6.53441295546559"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="4.4412955465587"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="12.1619433198381"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.19838056680162"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="11" width="4"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="36" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="36" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="36" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2539,190 +2368,108 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="42" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="42" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="43" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="11" width="10.5060728744939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="9.95546558704453"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="99.4858299595142"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="45.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.19838056680162"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="4"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="34" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="55" t="n">
-        <v>1</v>
-      </c>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="37"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="45"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="37"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="45"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="37"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="45"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="37"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="45"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="37"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2747,241 +2494,241 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="57" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="58" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="57" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="58" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="58" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="57" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="59" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="11" width="16.7894736842105"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.1619433198381"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.5060728744939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="9.95546558704453"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.19838056680162"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="4"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="60" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="60"/>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="61" t="s">
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C5" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="s">
+      <c r="D5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B6" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E7" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="74" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="76" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="78" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="73" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="81"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="38"/>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="38"/>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="38"/>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="38"/>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="38"/>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="38"/>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="38"/>
-    </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="38"/>
-    </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="38"/>
-    </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="38"/>
-    </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="38"/>
-    </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="38"/>
-    </row>
-    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="38"/>
-    </row>
-    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="38"/>
-    </row>
-    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="38"/>
-    </row>
-    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="38"/>
+      <c r="F7" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="56"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="33"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="33"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3006,350 +2753,351 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="87" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="87" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="87" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="87" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="87" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="87" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="88" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="21.3076923076923"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="26.8218623481781"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.1619433198381"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.5060728744939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="9.95546558704453"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.52631578947368"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="4"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="61" t="s">
+      <c r="G1" s="62"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="63" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="92" t="n">
+      <c r="F3" s="66" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="93" t="n">
+      <c r="G3" s="67" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="94" t="n">
+      <c r="F4" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="93" t="n">
+      <c r="G4" s="67" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="94" t="n">
+      <c r="F5" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="93" t="n">
+      <c r="G5" s="67" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="94" t="n">
+      <c r="F6" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="93" t="n">
+      <c r="G6" s="67" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="94" t="n">
+      <c r="F7" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="93" t="n">
+      <c r="G7" s="67" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="64" t="s">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="91" t="n">
+      <c r="C8" s="65" t="n">
         <v>3582910080282</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="94" t="n">
+      <c r="F8" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="93" t="n">
+      <c r="G8" s="67" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="91" t="n">
+      <c r="C9" s="65" t="n">
         <v>3582910076117</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="94" t="n">
+      <c r="F9" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="93" t="n">
+      <c r="G9" s="67" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="64" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="91" t="n">
+      <c r="C10" s="65" t="n">
         <v>3582910076155</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="94" t="n">
+      <c r="F10" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="G10" s="93" t="n">
+      <c r="G10" s="67" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="64" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="91" t="n">
+      <c r="C11" s="65" t="n">
         <v>3582910076148</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="94" t="n">
+      <c r="F11" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="93" t="n">
+      <c r="G11" s="67" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="64" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="91" t="n">
+      <c r="C12" s="65" t="n">
         <v>3582910076124</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="94" t="n">
+      <c r="F12" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="93" t="n">
+      <c r="G12" s="67" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="64" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="94" t="n">
+      <c r="F13" s="68" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="93" t="n">
+      <c r="G13" s="67" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="96" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="92" t="n">
+      <c r="F14" s="66" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="100" t="n">
+      <c r="G14" s="74" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="96" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="91" t="n">
+      <c r="C15" s="65" t="n">
         <v>3582910080282</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="94" t="n">
+      <c r="F15" s="68" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="93" t="n">
+      <c r="G15" s="67" t="n">
         <v>2</v>
       </c>
     </row>

--- a/Projects/SANOFIKH/Data/Template.xlsx
+++ b/Projects/SANOFIKH/Data/Template.xlsx
@@ -942,7 +942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="25">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1028,48 +1028,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top/>
@@ -1107,7 +1065,28 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
       <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -1132,6 +1111,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1162,7 +1148,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1311,31 +1297,27 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="14" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1343,35 +1325,55 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1379,67 +1381,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1447,19 +1405,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1549,14 +1507,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6234817813765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.2226720647773"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.2753036437247"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.09716599190283"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,14 +1776,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="26.8218623481781"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.1619433198381"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.5060728744939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="9.95546558704453"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.52631578947368"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="4"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="3.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,14 +2098,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="15.3603238866397"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="4.76923076923077"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="11" width="6.53441295546559"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="4.4412955465587"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="12.1619433198381"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.19838056680162"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="11" width="4"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="4.39271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="11" width="3.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2161,6 +2118,7 @@
         <v>30</v>
       </c>
       <c r="G1" s="29"/>
+      <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
@@ -2366,21 +2324,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="11" width="10.5060728744939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="9.95546558704453"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="99.4858299595142"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="45.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.19838056680162"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="4"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="11" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="100.368421052632"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="3.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2416,60 +2374,6 @@
       <c r="G2" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="45"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="45"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2499,13 +2403,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="11" width="16.7894736842105"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.1619433198381"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.5060728744939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="9.95546558704453"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.19838056680162"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="4"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="11" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="3.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2514,10 +2418,10 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="47"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
@@ -2535,41 +2439,41 @@
       <c r="E2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="40" t="n">
+      <c r="F3" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -2578,21 +2482,21 @@
       <c r="D4" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="57" t="n">
+      <c r="F4" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -2601,21 +2505,21 @@
       <c r="D5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="44" t="n">
+      <c r="F5" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="47" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -2624,7 +2528,7 @@
       <c r="D6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="51" t="s">
         <v>64</v>
       </c>
       <c r="F6" s="24" t="n">
@@ -2638,7 +2542,7 @@
       <c r="A7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -2647,7 +2551,7 @@
       <c r="D7" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="49" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="24" t="n">
@@ -2658,12 +2562,12 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="56"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="32"/>
@@ -2758,14 +2662,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="21.3076923076923"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="26.8218623481781"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.1619433198381"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.5060728744939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="9.95546558704453"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.52631578947368"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="4"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.60728744939271"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="12" width="3.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,7 +2681,7 @@
       <c r="F1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="62"/>
+      <c r="G1" s="55"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
@@ -2798,306 +2702,306 @@
       <c r="F2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="56" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="66" t="n">
+      <c r="F3" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="67" t="n">
+      <c r="G3" s="60" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="68" t="n">
+      <c r="F4" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="67" t="n">
+      <c r="G4" s="60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="68" t="n">
+      <c r="F5" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="67" t="n">
+      <c r="G5" s="60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="68" t="n">
+      <c r="F6" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="67" t="n">
+      <c r="G6" s="60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="68" t="n">
+      <c r="F7" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="67" t="n">
+      <c r="G7" s="60" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="65" t="n">
+      <c r="C8" s="58" t="n">
         <v>3582910080282</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="68" t="n">
+      <c r="F8" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="67" t="n">
+      <c r="G8" s="60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="65" t="n">
+      <c r="C9" s="58" t="n">
         <v>3582910076117</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="68" t="n">
+      <c r="F9" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="67" t="n">
+      <c r="G9" s="60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="65" t="n">
+      <c r="C10" s="58" t="n">
         <v>3582910076155</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="68" t="n">
+      <c r="F10" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="G10" s="67" t="n">
+      <c r="G10" s="60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="65" t="n">
+      <c r="C11" s="58" t="n">
         <v>3582910076148</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="68" t="n">
+      <c r="F11" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="67" t="n">
+      <c r="G11" s="60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="65" t="n">
+      <c r="C12" s="58" t="n">
         <v>3582910076124</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="68" t="n">
+      <c r="F12" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="67" t="n">
+      <c r="G12" s="60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="68" t="n">
+      <c r="F13" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="67" t="n">
+      <c r="G13" s="60" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="66" t="n">
+      <c r="F14" s="59" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="74" t="n">
+      <c r="G14" s="67" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="65" t="n">
+      <c r="C15" s="58" t="n">
         <v>3582910080282</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="68" t="n">
+      <c r="F15" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="67" t="n">
+      <c r="G15" s="60" t="n">
         <v>2</v>
       </c>
     </row>

--- a/Projects/SANOFIKH/Data/Template.xlsx
+++ b/Projects/SANOFIKH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="90">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -651,6 +651,12 @@
     <t xml:space="preserve">GBD</t>
   </si>
   <si>
+    <t xml:space="preserve">GBD Platinuim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBD Gold</t>
+  </si>
+  <si>
     <t xml:space="preserve">TELFAST OD 120MG</t>
   </si>
   <si>
@@ -735,6 +741,18 @@
     <t xml:space="preserve">Digestive Health</t>
   </si>
   <si>
+    <t xml:space="preserve">DOLIPRANE 1,000MG EFF TAB (NEW 2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTEROGERMINA 5ML (NEW 2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterogermina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELFAST 180MG (NEW 2019)</t>
+  </si>
+  <si>
     <t xml:space="preserve">SKUs</t>
   </si>
   <si>
@@ -762,10 +780,34 @@
     <t xml:space="preserve">WF-04</t>
   </si>
   <si>
+    <t xml:space="preserve">Telfast window Frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcium Corbiere window Frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutritional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doliprane Counter Display</t>
   </si>
   <si>
     <t xml:space="preserve">CD-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doliprane &amp; Telfast Counter Display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doliprane &amp; Telfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIN &amp; Allergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOLIPRANE 1,00MG EFF TAB (NEW 2019)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELFAST 120MG</t>
   </si>
 </sst>
 </file>
@@ -942,7 +984,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1085,13 +1127,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="medium"/>
@@ -1148,7 +1183,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1257,14 +1292,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1329,55 +1364,47 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1385,19 +1412,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1405,7 +1428,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1413,11 +1436,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1507,11 +1526,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
@@ -1768,19 +1787,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="12" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
@@ -1819,27 +1838,39 @@
       <c r="G2" s="17" t="s">
         <v>36</v>
       </c>
+      <c r="H2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" s="23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,21 +1879,27 @@
         <v>23</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="27" t="n">
+        <v>46</v>
+      </c>
+      <c r="F4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1871,21 +1908,27 @@
         <v>23</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="27" t="n">
+      <c r="F5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1894,21 +1937,27 @@
         <v>23</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27" t="n">
+        <v>52</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1917,21 +1966,27 @@
         <v>23</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="E7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="27" t="n">
+      <c r="F7" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1940,21 +1995,27 @@
         <v>23</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="25" t="n">
         <v>3582910080282</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="27" t="n">
+        <v>57</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1963,21 +2024,27 @@
         <v>23</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="25" t="n">
         <v>3582910076117</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="27" t="n">
+        <v>57</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1986,21 +2053,27 @@
         <v>23</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="25" t="n">
         <v>3582910076155</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="27" t="n">
+        <v>57</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2009,21 +2082,27 @@
         <v>23</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C11" s="25" t="n">
         <v>3582910076148</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="27" t="n">
+        <v>57</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2032,22 +2111,28 @@
         <v>23</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="25" t="n">
         <v>3582910076124</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="27" t="n">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,21 +2140,114 @@
         <v>23</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="27" t="n">
+        <v>65</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="25" t="n">
+        <v>3582910075820</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="25" t="n">
+        <v>3582910075455</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="25" t="n">
+        <v>8901083012138</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2098,12 +2276,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="11" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="11" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="11" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.39271255060729"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="11" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
   </cols>
@@ -2131,7 +2309,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>32</v>
@@ -2326,17 +2504,17 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="11" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="100.368421052632"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="45.9554655870445"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="101.226720647773"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.39271255060729"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="12" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
   </cols>
@@ -2395,19 +2573,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="11" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="20.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.39271255060729"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="12" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
   </cols>
@@ -2445,50 +2624,68 @@
       <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
+      <c r="H2" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="44" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3" s="45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="46" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H3" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>68</v>
+      <c r="B4" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,92 +2693,175 @@
       <c r="A5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>70</v>
+      <c r="B5" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="49" t="n">
-        <v>1</v>
+        <v>53</v>
+      </c>
+      <c r="F5" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>72</v>
+      <c r="B6" s="48" t="s">
+        <v>78</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="32" t="n">
+        <v>65</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="47"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="B9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="A10" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="33"/>
@@ -2654,19 +2934,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="12" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
@@ -2681,7 +2961,7 @@
       <c r="F1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="55"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
@@ -2702,53 +2982,71 @@
       <c r="F2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="54" t="s">
         <v>36</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="57" t="s">
+      <c r="B3" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="C3" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="59" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="60" t="n">
-        <v>2</v>
+      <c r="D3" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" s="47" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="56" t="n">
+        <v>8901083012138</v>
+      </c>
+      <c r="D4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="E4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="61" t="n">
+      <c r="F4" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="G4" s="60" t="n">
+      <c r="I4" s="47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2756,45 +3054,57 @@
       <c r="A5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="E5" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="61" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="60" t="n">
-        <v>4</v>
+      <c r="F5" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="47" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" s="47" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="D6" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="61" t="n">
+      <c r="E6" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="G6" s="60" t="n">
+      <c r="I6" s="47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2802,114 +3112,144 @@
       <c r="A7" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="E7" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="60" t="n">
-        <v>2</v>
+      <c r="F7" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="47" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="58" t="n">
-        <v>3582910080282</v>
-      </c>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="61" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" s="60" t="n">
-        <v>4</v>
+      <c r="D8" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="47" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="56" t="n">
+        <v>3582910080282</v>
+      </c>
+      <c r="D9" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="58" t="n">
-        <v>3582910076117</v>
-      </c>
-      <c r="D9" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="61" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" s="60" t="n">
-        <v>4</v>
+      <c r="E9" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="47" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" s="47" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="56" t="n">
+        <v>3582910076117</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="58" t="n">
-        <v>3582910076155</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="61" t="n">
-        <v>4</v>
-      </c>
-      <c r="G10" s="60" t="n">
-        <v>4</v>
+      <c r="F10" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="47" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" s="47" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="58" t="n">
-        <v>3582910076148</v>
-      </c>
-      <c r="D11" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="61" t="n">
+      <c r="B11" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="56" t="n">
+        <v>3582910076155</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="60" t="n">
+      <c r="I11" s="47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2917,22 +3257,28 @@
       <c r="A12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="58" t="n">
-        <v>3582910076124</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="61" t="n">
+      <c r="B12" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="56" t="n">
+        <v>3582910076148</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="60" t="n">
+      <c r="I12" s="47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2940,68 +3286,231 @@
       <c r="A13" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="58" t="s">
+      <c r="B13" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="C13" s="56" t="n">
+        <v>3582910076124</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="56" t="n">
+        <v>3582910075820</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="47" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" s="47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="56" t="n">
+        <v>3582910075455</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" s="47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="C16" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="61" t="n">
+      <c r="D16" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="60" t="n">
+      <c r="I16" s="47" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="63" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="64" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="65" t="s">
+      <c r="B17" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="59" t="n">
+      <c r="F17" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="56" t="n">
+        <v>3582910080282</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="62" t="n">
+        <v>3582910075820</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" s="47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="56" t="n">
+        <v>8901083012139</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="67" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="58" t="n">
-        <v>3582910080282</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="61" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="60" t="n">
+      <c r="I20" s="47" t="n">
         <v>2</v>
       </c>
     </row>

--- a/Projects/SANOFIKH/Data/Template.xlsx
+++ b/Projects/SANOFIKH/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="90">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -1183,7 +1183,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1304,10 +1304,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1372,10 +1368,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1389,10 +1381,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1526,11 +1514,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
@@ -1796,10 +1784,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="12" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
@@ -1815,6 +1803,8 @@
         <v>30</v>
       </c>
       <c r="G1" s="15"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
@@ -2268,20 +2258,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="11" width="4.82186234817814"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="11" width="6.53441295546559"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="11" width="4.39271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="11" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
   </cols>
@@ -2320,167 +2310,172 @@
       <c r="G2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="30"/>
+      <c r="H2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2502,19 +2497,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="11" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="101.226720647773"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="102.085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="12" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
   </cols>
@@ -2551,6 +2546,12 @@
       </c>
       <c r="G2" s="17" t="s">
         <v>36</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2581,12 +2582,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="20.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="12" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
   </cols>
@@ -2597,10 +2598,12 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="37"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
@@ -2618,111 +2621,111 @@
       <c r="E2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="47" t="n">
+      <c r="F3" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="47" t="n">
+      <c r="F4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="47" t="n">
+      <c r="F5" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -2731,56 +2734,56 @@
       <c r="D6" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="47" t="n">
+      <c r="F6" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="47" t="n">
+      <c r="F7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="46" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="26" t="s">
@@ -2789,19 +2792,19 @@
       <c r="D8" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="47" t="n">
+      <c r="F8" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,7 +2812,7 @@
       <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="46" t="s">
         <v>83</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -2818,19 +2821,19 @@
       <c r="D9" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="47" t="n">
+      <c r="F9" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,7 +2841,7 @@
       <c r="A10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="46" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="26" t="s">
@@ -2847,72 +2850,72 @@
       <c r="D10" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="47" t="n">
+      <c r="F10" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="33"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="33"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="33"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="33"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="33"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="33"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="33"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="33"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="33"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="33"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="33"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="33"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="33"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="33"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="33"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="33"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="33"/>
+      <c r="F27" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2937,16 +2940,16 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="11" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="11" width="7.60728744939271"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="12" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="12" width="9.10526315789474"/>
@@ -2961,7 +2964,9 @@
       <c r="F1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="53"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
@@ -2982,7 +2987,7 @@
       <c r="F2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="51" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="17" t="s">
@@ -2993,524 +2998,524 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="47" t="n">
+      <c r="F3" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="47" t="n">
+      <c r="I3" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="56" t="n">
+      <c r="C4" s="53" t="n">
         <v>8901083012138</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="47" t="n">
+      <c r="F4" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="47" t="n">
+      <c r="I4" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="47" t="n">
+      <c r="F5" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="I5" s="47" t="n">
+      <c r="I5" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="47" t="n">
+      <c r="F6" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="47" t="n">
+      <c r="I6" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="47" t="n">
+      <c r="F7" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I7" s="47" t="n">
+      <c r="I7" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="47" t="n">
+      <c r="F8" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="47" t="n">
+      <c r="I8" s="12" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="56" t="n">
+      <c r="C9" s="53" t="n">
         <v>3582910080282</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="47" t="n">
+      <c r="F9" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="47" t="n">
+      <c r="I9" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="56" t="n">
+      <c r="C10" s="53" t="n">
         <v>3582910076117</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="47" t="n">
+      <c r="F10" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="I10" s="47" t="n">
+      <c r="I10" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="56" t="n">
+      <c r="C11" s="53" t="n">
         <v>3582910076155</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="47" t="n">
+      <c r="F11" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I11" s="47" t="n">
+      <c r="I11" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="56" t="n">
+      <c r="C12" s="53" t="n">
         <v>3582910076148</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="47" t="n">
+      <c r="F12" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I12" s="47" t="n">
+      <c r="I12" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="56" t="n">
+      <c r="C13" s="53" t="n">
         <v>3582910076124</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="47" t="n">
+      <c r="F13" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="56" t="n">
+      <c r="C14" s="53" t="n">
         <v>3582910075820</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="47" t="n">
+      <c r="F14" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="I14" s="47" t="n">
+      <c r="I14" s="12" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="56" t="n">
+      <c r="C15" s="53" t="n">
         <v>3582910075455</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="47" t="n">
+      <c r="F15" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I15" s="47" t="n">
+      <c r="I15" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="47" t="n">
+      <c r="F16" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I16" s="47" t="n">
+      <c r="I16" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="47" t="n">
+      <c r="F17" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="56" t="n">
+      <c r="C18" s="53" t="n">
         <v>3582910080282</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="47" t="n">
+      <c r="F18" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="62" t="n">
+      <c r="C19" s="59" t="n">
         <v>3582910075820</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="E19" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="47" t="n">
+      <c r="F19" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="I19" s="47" t="n">
+      <c r="I19" s="12" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="56" t="n">
+      <c r="C20" s="53" t="n">
         <v>8901083012139</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="47" t="n">
+      <c r="F20" s="54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="47" t="n">
+      <c r="I20" s="12" t="n">
         <v>2</v>
       </c>
     </row>
